--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>79629</v>
+        <v>78900.96623825973</v>
       </c>
       <c r="C2">
-        <v>127490</v>
+        <v>126625.1774154419</v>
       </c>
       <c r="D2">
-        <v>180158</v>
+        <v>179616.2974086792</v>
       </c>
       <c r="E2">
-        <v>219024</v>
+        <v>219277.3863073432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>85750</v>
+        <v>86790.95600780808</v>
       </c>
       <c r="C3">
-        <v>140712</v>
+        <v>141834.2692948607</v>
       </c>
       <c r="D3">
-        <v>202370</v>
+        <v>203230.6592846719</v>
       </c>
       <c r="E3">
-        <v>251904</v>
+        <v>253024.8626478237</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>48348</v>
+        <v>47473.32145807893</v>
       </c>
       <c r="C4">
-        <v>81872</v>
+        <v>82650.45962447385</v>
       </c>
       <c r="D4">
-        <v>136512</v>
+        <v>136052.5618903024</v>
       </c>
       <c r="E4">
-        <v>186354</v>
+        <v>183271.8678927773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20608</v>
+        <v>20985.77995440275</v>
       </c>
       <c r="C5">
-        <v>35154</v>
+        <v>35479.66906454174</v>
       </c>
       <c r="D5">
-        <v>51037</v>
+        <v>50568.11281908691</v>
       </c>
       <c r="E5">
-        <v>60588</v>
+        <v>60392.30256534647</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8723</v>
+        <v>9508.61647798846</v>
       </c>
       <c r="C6">
-        <v>13728</v>
+        <v>14196.46344123902</v>
       </c>
       <c r="D6">
-        <v>22022</v>
+        <v>22621.75638317832</v>
       </c>
       <c r="E6">
-        <v>26128</v>
+        <v>26644.84328347797</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1635</v>
+        <v>1671.270963587677</v>
       </c>
       <c r="C7">
-        <v>2745</v>
+        <v>2809.121889588123</v>
       </c>
       <c r="D7">
-        <v>4230</v>
+        <v>4308.994386236351</v>
       </c>
       <c r="E7">
-        <v>5085</v>
+        <v>5118.22199367451</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>85592</v>
+        <v>89345.77438605897</v>
       </c>
       <c r="C8">
-        <v>158208</v>
+        <v>164238.2231598518</v>
       </c>
       <c r="D8">
-        <v>224679</v>
+        <v>227769.7944633954</v>
       </c>
       <c r="E8">
-        <v>265829</v>
+        <v>268666.5082649724</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36256</v>
+        <v>36187.57339999937</v>
       </c>
       <c r="C9">
-        <v>60030</v>
+        <v>59721.89583435358</v>
       </c>
       <c r="D9">
-        <v>79310</v>
+        <v>79895.1403610858</v>
       </c>
       <c r="E9">
-        <v>88182</v>
+        <v>88557.3731103122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23229</v>
+        <v>23147.54716588733</v>
       </c>
       <c r="C10">
-        <v>41194</v>
+        <v>40216.96354845799</v>
       </c>
       <c r="D10">
-        <v>65076</v>
+        <v>65042.17812641605</v>
       </c>
       <c r="E10">
-        <v>87462</v>
+        <v>86793.06202533137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3648</v>
+        <v>3719.188249141922</v>
       </c>
       <c r="C11">
-        <v>6210</v>
+        <v>6050.047122912442</v>
       </c>
       <c r="D11">
-        <v>10065</v>
+        <v>9957.26167774932</v>
       </c>
       <c r="E11">
-        <v>14704</v>
+        <v>14669.66185150074</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2145</v>
+        <v>2194.418494361083</v>
       </c>
       <c r="C12">
-        <v>4560</v>
+        <v>4528.928167216951</v>
       </c>
       <c r="D12">
-        <v>11400</v>
+        <v>11320.9165339639</v>
       </c>
       <c r="E12">
-        <v>18798</v>
+        <v>18606.31411736884</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10094</v>
+        <v>9949.239781516966</v>
       </c>
       <c r="C13">
-        <v>18000</v>
+        <v>17391.14458628593</v>
       </c>
       <c r="D13">
-        <v>30576</v>
+        <v>30564.50792310344</v>
       </c>
       <c r="E13">
-        <v>43904</v>
+        <v>43170.97631742917</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78900.96623825973</v>
+        <v>78900.96623825972</v>
       </c>
       <c r="C2">
-        <v>126625.1774154419</v>
+        <v>126625.177415442</v>
       </c>
       <c r="D2">
         <v>179616.2974086792</v>
       </c>
       <c r="E2">
-        <v>219277.3863073432</v>
+        <v>219277.3863073431</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>86790.95600780808</v>
+        <v>86790.95600780811</v>
       </c>
       <c r="C3">
-        <v>141834.2692948607</v>
+        <v>141834.2692948605</v>
       </c>
       <c r="D3">
-        <v>203230.6592846719</v>
+        <v>203230.659284672</v>
       </c>
       <c r="E3">
-        <v>253024.8626478237</v>
+        <v>253024.862647824</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47473.32145807893</v>
+        <v>47473.3214580789</v>
       </c>
       <c r="C4">
-        <v>82650.45962447385</v>
+        <v>82650.45962447402</v>
       </c>
       <c r="D4">
         <v>136052.5618903024</v>
       </c>
       <c r="E4">
-        <v>183271.8678927773</v>
+        <v>183271.8678927774</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20985.77995440275</v>
+        <v>20985.77995440276</v>
       </c>
       <c r="C5">
-        <v>35479.66906454174</v>
+        <v>35479.66906454177</v>
       </c>
       <c r="D5">
-        <v>50568.11281908691</v>
+        <v>50568.11281908684</v>
       </c>
       <c r="E5">
-        <v>60392.30256534647</v>
+        <v>60392.30256534649</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9508.61647798846</v>
+        <v>9508.616477988478</v>
       </c>
       <c r="C6">
-        <v>14196.46344123902</v>
+        <v>14196.46344123903</v>
       </c>
       <c r="D6">
-        <v>22621.75638317832</v>
+        <v>22621.75638317828</v>
       </c>
       <c r="E6">
-        <v>26644.84328347797</v>
+        <v>26644.84328347798</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>89345.77438605897</v>
+        <v>89345.77438605885</v>
       </c>
       <c r="C8">
         <v>164238.2231598518</v>
       </c>
       <c r="D8">
-        <v>227769.7944633954</v>
+        <v>227769.7944633955</v>
       </c>
       <c r="E8">
         <v>268666.5082649724</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36187.57339999937</v>
+        <v>36187.5733999993</v>
       </c>
       <c r="C9">
-        <v>59721.89583435358</v>
+        <v>59721.89583435367</v>
       </c>
       <c r="D9">
-        <v>79895.1403610858</v>
+        <v>79895.14036108594</v>
       </c>
       <c r="E9">
-        <v>88557.3731103122</v>
+        <v>88557.37311031224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23147.54716588733</v>
+        <v>23147.54716588734</v>
       </c>
       <c r="C10">
-        <v>40216.96354845799</v>
+        <v>40216.96354845797</v>
       </c>
       <c r="D10">
-        <v>65042.17812641605</v>
+        <v>65042.1781264161</v>
       </c>
       <c r="E10">
-        <v>86793.06202533137</v>
+        <v>86793.06202533141</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3719.188249141922</v>
+        <v>3719.188249141924</v>
       </c>
       <c r="C11">
-        <v>6050.047122912442</v>
+        <v>6050.047122912445</v>
       </c>
       <c r="D11">
-        <v>9957.26167774932</v>
+        <v>9957.261677749324</v>
       </c>
       <c r="E11">
-        <v>14669.66185150074</v>
+        <v>14669.66185150073</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2194.418494361083</v>
+        <v>2194.418494361085</v>
       </c>
       <c r="C12">
-        <v>4528.928167216951</v>
+        <v>4528.92816721696</v>
       </c>
       <c r="D12">
-        <v>11320.9165339639</v>
+        <v>11320.91653396392</v>
       </c>
       <c r="E12">
-        <v>18606.31411736884</v>
+        <v>18606.31411736883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9949.239781516966</v>
+        <v>9949.239781516961</v>
       </c>
       <c r="C13">
         <v>17391.14458628593</v>
       </c>
       <c r="D13">
-        <v>30564.50792310344</v>
+        <v>30564.50792310346</v>
       </c>
       <c r="E13">
-        <v>43170.97631742917</v>
+        <v>43170.97631742919</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78900.96623825972</v>
+        <v>78901</v>
       </c>
       <c r="C2">
-        <v>126625.177415442</v>
+        <v>126625</v>
       </c>
       <c r="D2">
-        <v>179616.2974086792</v>
+        <v>179616</v>
       </c>
       <c r="E2">
-        <v>219277.3863073431</v>
+        <v>219277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>86790.95600780811</v>
+        <v>86791</v>
       </c>
       <c r="C3">
-        <v>141834.2692948605</v>
+        <v>141834</v>
       </c>
       <c r="D3">
-        <v>203230.659284672</v>
+        <v>203231</v>
       </c>
       <c r="E3">
-        <v>253024.862647824</v>
+        <v>253025</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>47473.3214580789</v>
+        <v>47473</v>
       </c>
       <c r="C4">
-        <v>82650.45962447402</v>
+        <v>82650</v>
       </c>
       <c r="D4">
-        <v>136052.5618903024</v>
+        <v>136053</v>
       </c>
       <c r="E4">
-        <v>183271.8678927774</v>
+        <v>183272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20985.77995440276</v>
+        <v>20986</v>
       </c>
       <c r="C5">
-        <v>35479.66906454177</v>
+        <v>35480</v>
       </c>
       <c r="D5">
-        <v>50568.11281908684</v>
+        <v>50568</v>
       </c>
       <c r="E5">
-        <v>60392.30256534649</v>
+        <v>60392</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>9508.616477988478</v>
+        <v>9509</v>
       </c>
       <c r="C6">
-        <v>14196.46344123903</v>
+        <v>14196</v>
       </c>
       <c r="D6">
-        <v>22621.75638317828</v>
+        <v>22622</v>
       </c>
       <c r="E6">
-        <v>26644.84328347798</v>
+        <v>26645</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1671.270963587677</v>
+        <v>1671</v>
       </c>
       <c r="C7">
-        <v>2809.121889588123</v>
+        <v>2809</v>
       </c>
       <c r="D7">
-        <v>4308.994386236351</v>
+        <v>4309</v>
       </c>
       <c r="E7">
-        <v>5118.22199367451</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>89345.77438605885</v>
+        <v>89346</v>
       </c>
       <c r="C8">
-        <v>164238.2231598518</v>
+        <v>164238</v>
       </c>
       <c r="D8">
-        <v>227769.7944633955</v>
+        <v>227770</v>
       </c>
       <c r="E8">
-        <v>268666.5082649724</v>
+        <v>268667</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>36187.5733999993</v>
+        <v>36188</v>
       </c>
       <c r="C9">
-        <v>59721.89583435367</v>
+        <v>59722</v>
       </c>
       <c r="D9">
-        <v>79895.14036108594</v>
+        <v>79895</v>
       </c>
       <c r="E9">
-        <v>88557.37311031224</v>
+        <v>88557</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23147.54716588734</v>
+        <v>23148</v>
       </c>
       <c r="C10">
-        <v>40216.96354845797</v>
+        <v>40217</v>
       </c>
       <c r="D10">
-        <v>65042.1781264161</v>
+        <v>65042</v>
       </c>
       <c r="E10">
-        <v>86793.06202533141</v>
+        <v>86793</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3719.188249141924</v>
+        <v>3719</v>
       </c>
       <c r="C11">
-        <v>6050.047122912445</v>
+        <v>6050</v>
       </c>
       <c r="D11">
-        <v>9957.261677749324</v>
+        <v>9957</v>
       </c>
       <c r="E11">
-        <v>14669.66185150073</v>
+        <v>14670</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2194.418494361085</v>
+        <v>2194</v>
       </c>
       <c r="C12">
-        <v>4528.92816721696</v>
+        <v>4529</v>
       </c>
       <c r="D12">
-        <v>11320.91653396392</v>
+        <v>11321</v>
       </c>
       <c r="E12">
-        <v>18606.31411736883</v>
+        <v>18606</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9949.239781516961</v>
+        <v>9949</v>
       </c>
       <c r="C13">
-        <v>17391.14458628593</v>
+        <v>17391</v>
       </c>
       <c r="D13">
-        <v>30564.50792310346</v>
+        <v>30565</v>
       </c>
       <c r="E13">
-        <v>43170.97631742919</v>
+        <v>43171</v>
       </c>
     </row>
   </sheetData>
